--- a/config.xlsx
+++ b/config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC9FE10-BAD9-45E5-A9A4-5ED66F90C0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378D0FD-C9AF-461B-AA82-1D997E65F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="1935" windowWidth="17355" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2520" windowWidth="17355" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -162,131 +162,397 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最小攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击前摇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹道速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转身速率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白天视野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜晚视野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>special_bonus_unique_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天赋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法前摇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法消耗</t>
+    <t>special_bonus_shard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击间隔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础攻速</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击前摇</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主动攻击范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弹道速度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础力量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>力量成长</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础智力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智力成长</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础敏捷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敏捷成长</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移速</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转身速率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白天视野</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜晚视野</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施法距离</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施法前摇</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能冷却</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能持续时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔法消耗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>持续时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( RequiresShard )</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,14 +569,54 @@
       </rPr>
       <t>杖</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_bonus_shard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔晶</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( RequiresScepter )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最小金钱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大金钱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经验</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +738,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,50 +768,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +1103,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -839,8 +1134,8 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -856,8 +1151,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -873,7 +1168,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="1">
@@ -890,8 +1185,8 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -907,8 +1202,8 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -924,8 +1219,8 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -941,8 +1236,8 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -958,8 +1253,8 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -972,104 +1267,104 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>48</v>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>49</v>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1077,8 +1372,8 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1094,8 +1389,8 @@
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1111,8 +1406,8 @@
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1128,8 +1423,8 @@
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1153,7 +1448,250 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1181,296 +1719,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
     </row>
